--- a/lifelib/projects/fastlife/model/Input/input.xlsx
+++ b/lifelib/projects/fastlife/model/Input/input.xlsx
@@ -660,7 +660,7 @@
       <selection activeCell="B7" sqref="B7:O307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col width="20.7265625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.36328125" customWidth="1" style="1" min="2" max="2"/>
@@ -14772,7 +14772,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.08984375" defaultRowHeight="12.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
   <cols>
     <col width="6.7265625" customWidth="1" style="4" min="1" max="1"/>
     <col width="9.6328125" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
@@ -19621,7 +19621,7 @@
       <selection activeCell="B7" sqref="B7:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col width="11.36328125" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.36328125" customWidth="1" style="1" min="2" max="2"/>
@@ -20324,7 +20324,7 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
     <col width="5.6328125" customWidth="1" style="18" min="1" max="1"/>
     <col width="5" bestFit="1" customWidth="1" style="18" min="2" max="2"/>
@@ -20441,7 +20441,7 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col width="10.7265625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="11.7265625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -20927,7 +20927,7 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="8" customWidth="1" style="1" min="2" max="2"/>
@@ -21607,7 +21607,7 @@
       <selection activeCell="F1477" sqref="F1477"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col width="7.7265625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.1796875" customWidth="1" style="1" min="2" max="2"/>
